--- a/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
+++ b/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>KẾ HOẠCH LÀM VIỆC  GIAI ĐOẠN 1</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t xml:space="preserve">Tìm hiểu selenium python </t>
+  </si>
+  <si>
+    <t>Tìm hiểu selenium python và lưu lại tài liệu</t>
   </si>
 </sst>
 </file>
@@ -361,35 +364,119 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -400,89 +487,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,16 +515,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -807,14 +810,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -822,458 +825,458 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="21" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="22"/>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="50"/>
+      <c r="P5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10" t="s">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>43690</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22">
         <v>43694</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="11">
+      <c r="E6" s="22"/>
+      <c r="F6" s="42">
         <v>5</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="20" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="41">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="43">
+      <c r="B7" s="14">
         <v>43690</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="43">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14">
         <v>43690</v>
       </c>
-      <c r="E7" s="44"/>
-      <c r="F7" s="47">
+      <c r="E7" s="15"/>
+      <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="48"/>
-      <c r="H7" s="12" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="16"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="19"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>43690</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
         <v>43692</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="11">
+      <c r="E9" s="22"/>
+      <c r="F9" s="42">
         <v>2</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="13" t="s">
+      <c r="G9" s="42"/>
+      <c r="H9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="31"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="34">
+      <c r="B10" s="23">
         <v>43695</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
         <v>43695</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="36">
+      <c r="E10" s="23"/>
+      <c r="F10" s="28">
         <v>4</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="12" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="33"/>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="33"/>
-      <c r="U10" s="32"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="33"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42">
         <v>0.75</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="24" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="38"/>
-      <c r="W11" s="31"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="41">
+      <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="35">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="41">
         <v>45</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="12" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="16"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="31"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="42"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="19"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="11">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="42">
         <v>30</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="24" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="38"/>
-      <c r="W14" s="31"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="36">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="28">
         <v>30</v>
       </c>
-      <c r="G15" s="36"/>
-      <c r="H15" s="25" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="33"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="11">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="42">
         <v>30</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="24" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="30"/>
-      <c r="V16" s="38"/>
-      <c r="W16" s="31"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
+      <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="35">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="16"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="16"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="31"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="19"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="34"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -1286,6 +1289,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H7:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="P7:T8"/>
+    <mergeCell ref="U7:W8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H17:M18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P12:T13"/>
+    <mergeCell ref="P17:T18"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="U12:W13"/>
+    <mergeCell ref="U17:W18"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A7:A8"/>
@@ -1302,71 +1370,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="U12:W13"/>
-    <mergeCell ref="U17:W18"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P12:T13"/>
-    <mergeCell ref="P17:T18"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H17:M18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H7:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="P7:T8"/>
-    <mergeCell ref="U7:W8"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1375,10 +1378,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1401,105 +1404,119 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10" t="s">
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="51">
+      <c r="B5" s="54">
         <v>43767</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="56">
+      <c r="C5" s="55"/>
+      <c r="D5" s="59">
         <v>2</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="55" t="s">
+      <c r="E5" s="59"/>
+      <c r="F5" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56" t="s">
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+      <c r="L5" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="56"/>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="56" t="s">
+      <c r="M5" s="59"/>
+      <c r="N5" s="59"/>
+      <c r="O5" s="59"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="56"/>
-      <c r="U5" s="56"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="59"/>
+      <c r="T5" s="59"/>
+      <c r="U5" s="59"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="57">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="51">
         <v>1.5</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58" t="s">
+      <c r="E6" s="51"/>
+      <c r="F6" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="57" t="s">
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="59"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="54">
+        <v>43769</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="F7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="B7:C8"/>
     <mergeCell ref="L6:P6"/>
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="B5:C6"/>

--- a/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
+++ b/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>KẾ HOẠCH LÀM VIỆC  GIAI ĐOẠN 1</t>
   </si>
@@ -113,6 +113,19 @@
   </si>
   <si>
     <t>Tìm hiểu selenium python và lưu lại tài liệu</t>
+  </si>
+  <si>
+    <t>Viết code đọc qua list bài Top Post theo HashTag, vào thẻ Like để lấy thông tin user đã like</t>
+  </si>
+  <si>
+    <t>Đọc tài liệu ở link để hiểu cơ bản về các thẻ, element</t>
+  </si>
+  <si>
+    <t>Vào thẻ like theo class_name =&gt; Khả năng phải update khi Instagram thay đổi cấu trúc front-end?</t>
+  </si>
+  <si>
+    <t>Đã hoàn thành đến vào Like
+Chưa lấy được list user</t>
   </si>
 </sst>
 </file>
@@ -341,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -364,128 +377,143 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -496,18 +524,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -516,6 +532,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -810,14 +838,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -825,458 +853,458 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="49" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="43" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="24">
         <v>43690</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24">
         <v>43694</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="42">
+      <c r="E6" s="24"/>
+      <c r="F6" s="12">
         <v>5</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="42">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="44">
         <v>43690</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14">
+      <c r="C7" s="45"/>
+      <c r="D7" s="44">
         <v>43690</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="18">
+      <c r="E7" s="45"/>
+      <c r="F7" s="48">
         <v>1</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="31"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="24">
         <v>43690</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24">
         <v>43692</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="42">
+      <c r="E9" s="24"/>
+      <c r="F9" s="12">
         <v>2</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="47" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="35">
         <v>43695</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35">
         <v>43695</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="28">
+      <c r="E10" s="35"/>
+      <c r="F10" s="37">
         <v>4</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="40"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="34"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
         <v>0.75</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="32"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="41">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="36">
         <v>45</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="44" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="31"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="34"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="42">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="12">
         <v>30</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="45" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="32"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="28">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37">
         <v>30</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="46" t="s">
+      <c r="G15" s="37"/>
+      <c r="H15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="40"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="42">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="12">
         <v>30</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="32"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="42">
         <v>10</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="41">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36">
         <v>20</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="36"/>
+      <c r="H17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="31"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="34"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -1289,34 +1317,43 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H7:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="P7:T8"/>
-    <mergeCell ref="U7:W8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H17:M18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="U12:W13"/>
+    <mergeCell ref="U17:W18"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P12:T13"/>
+    <mergeCell ref="P17:T18"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="N12:O13"/>
     <mergeCell ref="N17:O18"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="N6:O6"/>
@@ -1333,43 +1370,34 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G18"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P12:T13"/>
-    <mergeCell ref="P17:T18"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="U12:W13"/>
-    <mergeCell ref="U17:W18"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H17:M18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H7:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="P7:T8"/>
+    <mergeCell ref="U7:W8"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1378,16 +1406,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U8"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="5.85546875" style="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="1"/>
+    <col min="21" max="21" width="10.28515625" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
@@ -1404,119 +1436,205 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="52">
         <v>43767</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="59">
+      <c r="C5" s="53"/>
+      <c r="D5" s="60">
         <v>2</v>
       </c>
-      <c r="E5" s="59"/>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="60"/>
+      <c r="F5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59" t="s">
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="59"/>
-      <c r="Q5" s="59" t="s">
+      <c r="M5" s="60"/>
+      <c r="N5" s="60"/>
+      <c r="O5" s="60"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="59"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="59"/>
-      <c r="U5" s="59"/>
+      <c r="R5" s="60"/>
+      <c r="S5" s="60"/>
+      <c r="T5" s="60"/>
+      <c r="U5" s="60"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="51">
+      <c r="B6" s="54"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="56">
         <v>1.5</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="60" t="s">
+      <c r="E6" s="56"/>
+      <c r="F6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="51" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="53"/>
-      <c r="S6" s="53"/>
-      <c r="T6" s="53"/>
-      <c r="U6" s="53"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="54">
+      <c r="A7" s="10">
+        <v>3</v>
+      </c>
+      <c r="B7" s="62">
         <v>43769</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="F7" s="1" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="60">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="60"/>
+      <c r="F7" s="59" t="s">
         <v>30</v>
       </c>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
+      <c r="A8" s="56">
+        <v>4</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="63">
+        <v>3.5</v>
+      </c>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="56"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B7:C8"/>
+  <mergeCells count="24">
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U9"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F7:K7"/>
     <mergeCell ref="L6:P6"/>
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="B5:C6"/>
@@ -1531,6 +1649,7 @@
     <mergeCell ref="Q5:U5"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:K6"/>
+    <mergeCell ref="F8:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
+++ b/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>KẾ HOẠCH LÀM VIỆC  GIAI ĐOẠN 1</t>
   </si>
@@ -126,6 +126,18 @@
   <si>
     <t>Đã hoàn thành đến vào Like
 Chưa lấy được list user</t>
+  </si>
+  <si>
+    <t>Viết code lấy username like bài viết</t>
+  </si>
+  <si>
+    <t>Chưa hoàn thành</t>
+  </si>
+  <si>
+    <t>Lấy được tên nhưng không đầy đủ (chưa xử lý thanh cuộn dữ liệu), gặp lỗi bỏ qua 1 số bài viết không quét được</t>
+  </si>
+  <si>
+    <t>Links dữ liệu</t>
   </si>
 </sst>
 </file>
@@ -202,7 +214,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -350,11 +362,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -503,20 +526,56 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -524,26 +583,47 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -828,7 +908,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:E14"/>
+      <selection activeCell="H12" sqref="H12:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,15 +1486,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U9"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
     <col min="2" max="15" width="9.140625" style="1"/>
     <col min="16" max="16" width="5.85546875" style="1" customWidth="1"/>
     <col min="17" max="20" width="9.140625" style="1"/>
@@ -1422,17 +1502,17 @@
     <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="J1" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -1466,183 +1546,282 @@
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
       <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W4" s="15"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="52">
+      <c r="B5" s="71">
         <v>43767</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="60">
+      <c r="C5" s="72"/>
+      <c r="D5" s="75">
         <v>2</v>
       </c>
-      <c r="E5" s="60"/>
-      <c r="F5" s="59" t="s">
+      <c r="E5" s="75"/>
+      <c r="F5" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="60" t="s">
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="60"/>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60" t="s">
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="82"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="56">
+      <c r="B6" s="73"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="66">
         <v>1.5</v>
       </c>
-      <c r="E6" s="56"/>
-      <c r="F6" s="61" t="s">
+      <c r="E6" s="66"/>
+      <c r="F6" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="56" t="s">
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="69"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="84"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="62">
+      <c r="B7" s="65">
         <v>43769</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="60">
+      <c r="C7" s="65"/>
+      <c r="D7" s="75">
         <v>0.5</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59" t="s">
+      <c r="E7" s="75"/>
+      <c r="F7" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60" t="s">
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60" t="s">
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="56">
+      <c r="R7" s="75"/>
+      <c r="S7" s="75"/>
+      <c r="T7" s="75"/>
+      <c r="U7" s="75"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="82"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="66">
         <v>4</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="63">
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="80">
         <v>3.5</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64" t="s">
+      <c r="E8" s="80"/>
+      <c r="F8" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="65" t="s">
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="64" t="s">
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="56"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
+      <c r="R8" s="78"/>
+      <c r="S8" s="78"/>
+      <c r="T8" s="78"/>
+      <c r="U8" s="78"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="84"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="68"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="78"/>
+      <c r="R9" s="78"/>
+      <c r="S9" s="78"/>
+      <c r="T9" s="78"/>
+      <c r="U9" s="78"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="84"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="56">
+        <v>5</v>
+      </c>
+      <c r="B10" s="52">
+        <v>43771</v>
+      </c>
+      <c r="C10" s="52"/>
+      <c r="D10" s="56">
+        <v>3</v>
+      </c>
+      <c r="E10" s="56"/>
+      <c r="F10" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="82"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="58"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U9"/>
+  <mergeCells count="36">
+    <mergeCell ref="V10:W12"/>
     <mergeCell ref="L8:P9"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E9"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W9"/>
     <mergeCell ref="B7:C9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F7:K7"/>
     <mergeCell ref="L6:P6"/>
     <mergeCell ref="Q6:U6"/>
     <mergeCell ref="B5:C6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="F4:K4"/>
     <mergeCell ref="F5:K5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="L5:P5"/>
@@ -1650,6 +1829,20 @@
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:K6"/>
     <mergeCell ref="F8:K9"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="Q10:U12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="F10:K12"/>
+    <mergeCell ref="L10:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
+++ b/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>KẾ HOẠCH LÀM VIỆC  GIAI ĐOẠN 1</t>
   </si>
@@ -138,6 +138,21 @@
   </si>
   <si>
     <t>Links dữ liệu</t>
+  </si>
+  <si>
+    <t>Xem lại và chỉnh sửa kế hoạch, hướng đến mục tiêu cần nhất</t>
+  </si>
+  <si>
+    <t>Đưa ra được mục tiêu ngắn tiếp theo</t>
+  </si>
+  <si>
+    <t>Cần chuẩn bị các bước tiếp theo sau khi hoàn thành mục tiêu ngắn hạn</t>
+  </si>
+  <si>
+    <t>Tìm chọn tên, lập tài khoản instagram mới</t>
+  </si>
+  <si>
+    <t>Đã lập tài khoản mới</t>
   </si>
 </sst>
 </file>
@@ -377,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -393,21 +408,126 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -418,113 +538,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -565,65 +634,20 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -907,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,14 +942,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -933,458 +957,458 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="43"/>
+      <c r="D5" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="14" t="s">
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="11" t="s">
+      <c r="O5" s="50"/>
+      <c r="P5" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11" t="s">
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="11"/>
-      <c r="W5" s="11"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>43690</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22">
         <v>43694</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="12">
+      <c r="E6" s="22"/>
+      <c r="F6" s="42">
         <v>5</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="42"/>
+      <c r="H6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
-      <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="42">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="14">
         <v>43690</v>
       </c>
-      <c r="C7" s="45"/>
-      <c r="D7" s="44">
+      <c r="C7" s="15"/>
+      <c r="D7" s="14">
         <v>43690</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="48">
+      <c r="E7" s="15"/>
+      <c r="F7" s="18">
         <v>1</v>
       </c>
-      <c r="G7" s="49"/>
-      <c r="H7" s="16" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="20"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="29"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="31"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="34"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>43690</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24">
+      <c r="C9" s="22"/>
+      <c r="D9" s="22">
         <v>43692</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="12">
+      <c r="E9" s="22"/>
+      <c r="F9" s="42">
         <v>2</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="42"/>
+      <c r="H9" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="32"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="39"/>
-      <c r="W9" s="32"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="36"/>
+      <c r="W9" s="37"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="35">
+      <c r="B10" s="23">
         <v>43695</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35">
+      <c r="C10" s="23"/>
+      <c r="D10" s="23">
         <v>43695</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="37">
+      <c r="E10" s="23"/>
+      <c r="F10" s="28">
         <v>4</v>
       </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="16" t="s">
+      <c r="G10" s="28"/>
+      <c r="H10" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="34"/>
-      <c r="U10" s="33"/>
-      <c r="V10" s="38"/>
-      <c r="W10" s="34"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="44"/>
+      <c r="M10" s="44"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="39"/>
+      <c r="R10" s="39"/>
+      <c r="S10" s="39"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="38"/>
+      <c r="V10" s="39"/>
+      <c r="W10" s="40"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42">
         <v>0.75</v>
       </c>
-      <c r="G11" s="12"/>
-      <c r="H11" s="25" t="s">
+      <c r="G11" s="42"/>
+      <c r="H11" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="39"/>
-      <c r="S11" s="39"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="39"/>
-      <c r="W11" s="32"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="37"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="42">
+      <c r="A12" s="12">
         <v>6</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="36">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="41">
         <v>45</v>
       </c>
-      <c r="G12" s="36"/>
-      <c r="H12" s="16" t="s">
+      <c r="G12" s="41"/>
+      <c r="H12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="19"/>
-      <c r="R12" s="19"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="19"/>
-      <c r="W12" s="20"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="29"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="29"/>
+      <c r="V12" s="30"/>
+      <c r="W12" s="31"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="43"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="23"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="32"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="34"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="12">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="42">
         <v>30</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="42"/>
+      <c r="H14" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="39"/>
-      <c r="S14" s="39"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="39"/>
-      <c r="W14" s="32"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="36"/>
+      <c r="W14" s="37"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="37">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="28">
         <v>30</v>
       </c>
-      <c r="G15" s="37"/>
-      <c r="H15" s="26" t="s">
+      <c r="G15" s="28"/>
+      <c r="H15" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="33"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="33"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="34"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="40"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="39"/>
+      <c r="R15" s="39"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="40"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="12">
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="42">
         <v>30</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="25" t="s">
+      <c r="G16" s="42"/>
+      <c r="H16" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="39"/>
-      <c r="R16" s="39"/>
-      <c r="S16" s="39"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="39"/>
-      <c r="W16" s="32"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="36"/>
+      <c r="W16" s="37"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
+      <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36">
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="41">
         <v>20</v>
       </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="41"/>
+      <c r="H17" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="19"/>
-      <c r="R17" s="19"/>
-      <c r="S17" s="19"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="19"/>
-      <c r="W17" s="20"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="30"/>
+      <c r="R17" s="30"/>
+      <c r="S17" s="30"/>
+      <c r="T17" s="31"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="31"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="43"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="22"/>
-      <c r="W18" s="23"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="34"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -1397,6 +1421,71 @@
     </row>
   </sheetData>
   <mergeCells count="81">
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H7:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="P7:T8"/>
+    <mergeCell ref="U7:W8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H17:M18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="N17:O18"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E18"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G18"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="N12:O13"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P12:T13"/>
+    <mergeCell ref="P17:T18"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="U12:W13"/>
+    <mergeCell ref="U17:W18"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
     <mergeCell ref="H1:M1"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="A7:A8"/>
@@ -1413,71 +1502,6 @@
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="U12:W13"/>
-    <mergeCell ref="U17:W18"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P12:T13"/>
-    <mergeCell ref="P17:T18"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="N17:O18"/>
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G18"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H17:M18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="H7:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="P7:T8"/>
-    <mergeCell ref="U7:W8"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1486,10 +1510,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1527,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="7" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1516,306 +1540,412 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11" t="s">
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="14" t="s">
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="15"/>
+      <c r="W4" s="50"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="63">
         <v>43767</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="75">
+      <c r="C5" s="64"/>
+      <c r="D5" s="55">
         <v>2</v>
       </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="55"/>
+      <c r="F5" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="76" t="s">
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="75" t="s">
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="81"/>
-      <c r="W5" s="82"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="52"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="8">
+      <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="66">
+      <c r="B6" s="65"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="55">
         <v>1.5</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="77" t="s">
+      <c r="E6" s="55"/>
+      <c r="F6" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="68" t="s">
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="69"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="84"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="52"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="65">
+      <c r="B7" s="59">
         <v>43769</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="75">
+      <c r="C7" s="59"/>
+      <c r="D7" s="60">
         <v>0.5</v>
       </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="67" t="s">
+      <c r="E7" s="60"/>
+      <c r="F7" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="76" t="s">
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="75" t="s">
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="75"/>
-      <c r="S7" s="75"/>
-      <c r="T7" s="75"/>
-      <c r="U7" s="75"/>
-      <c r="V7" s="81"/>
-      <c r="W7" s="82"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="58"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="66">
+      <c r="A8" s="60">
         <v>4</v>
       </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="80">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="56">
         <v>3.5</v>
       </c>
-      <c r="E8" s="80"/>
-      <c r="F8" s="78" t="s">
+      <c r="E8" s="56"/>
+      <c r="F8" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="78"/>
-      <c r="K8" s="78"/>
-      <c r="L8" s="79" t="s">
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="78" t="s">
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="78"/>
-      <c r="S8" s="78"/>
-      <c r="T8" s="78"/>
-      <c r="U8" s="78"/>
-      <c r="V8" s="83"/>
-      <c r="W8" s="84"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="58"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="78"/>
-      <c r="K9" s="78"/>
-      <c r="L9" s="68"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="78"/>
-      <c r="R9" s="78"/>
-      <c r="S9" s="78"/>
-      <c r="T9" s="78"/>
-      <c r="U9" s="78"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="84"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="58"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="56">
+      <c r="A10" s="74">
         <v>5</v>
       </c>
-      <c r="B10" s="52">
+      <c r="B10" s="70">
         <v>43771</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="56">
+      <c r="C10" s="70"/>
+      <c r="D10" s="74">
         <v>3</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="59" t="s">
+      <c r="E10" s="74"/>
+      <c r="F10" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="62" t="s">
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="53" t="s">
+      <c r="M10" s="80"/>
+      <c r="N10" s="80"/>
+      <c r="O10" s="80"/>
+      <c r="P10" s="80"/>
+      <c r="Q10" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="53"/>
-      <c r="S10" s="53"/>
-      <c r="T10" s="53"/>
-      <c r="U10" s="53"/>
-      <c r="V10" s="81"/>
-      <c r="W10" s="82"/>
+      <c r="R10" s="71"/>
+      <c r="S10" s="71"/>
+      <c r="T10" s="71"/>
+      <c r="U10" s="71"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="52"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="60"/>
-      <c r="L11" s="63"/>
-      <c r="M11" s="63"/>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="81"/>
-      <c r="W11" s="82"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="81"/>
+      <c r="M11" s="81"/>
+      <c r="N11" s="81"/>
+      <c r="O11" s="81"/>
+      <c r="P11" s="81"/>
+      <c r="Q11" s="72"/>
+      <c r="R11" s="72"/>
+      <c r="S11" s="72"/>
+      <c r="T11" s="72"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="51"/>
+      <c r="W11" s="52"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="81"/>
-      <c r="W12" s="82"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="82"/>
+      <c r="P12" s="82"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="51"/>
+      <c r="W12" s="52"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="84">
+        <v>6</v>
+      </c>
+      <c r="B13" s="59">
+        <v>43772</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="56">
+        <v>2</v>
+      </c>
+      <c r="E13" s="56"/>
+      <c r="F13" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="56">
+        <v>1</v>
+      </c>
+      <c r="E15" s="56"/>
+      <c r="F15" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="V10:W12"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W9"/>
+  <mergeCells count="47">
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="V13:W15"/>
+    <mergeCell ref="Q15:U15"/>
+    <mergeCell ref="B13:C15"/>
+    <mergeCell ref="Q13:U14"/>
+    <mergeCell ref="L13:P14"/>
+    <mergeCell ref="F13:K14"/>
+    <mergeCell ref="D13:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="Q10:U12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="F10:K12"/>
+    <mergeCell ref="L10:P12"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="B7:C9"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="F7:K7"/>
@@ -1832,17 +1962,15 @@
     <mergeCell ref="L7:P7"/>
     <mergeCell ref="Q7:U7"/>
     <mergeCell ref="Q8:U9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="B10:C12"/>
-    <mergeCell ref="Q10:U12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="D10:E12"/>
-    <mergeCell ref="F10:K12"/>
-    <mergeCell ref="L10:P12"/>
+    <mergeCell ref="V10:W12"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
+++ b/04. Ke Hoach/03. Ke hoach ca nhan/Quoc/TodoList_Quoc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>KẾ HOẠCH LÀM VIỆC  GIAI ĐOẠN 1</t>
   </si>
@@ -153,6 +153,30 @@
   </si>
   <si>
     <t>Đã lập tài khoản mới</t>
+  </si>
+  <si>
+    <t>Tạo database quản lý tài khoản, nuôi facebook</t>
+  </si>
+  <si>
+    <t>Test máy ảo linux dùng mạng bridge - nhận IP từ router</t>
+  </si>
+  <si>
+    <t>Đã tạo liệt kê các bảng và trường cho từng bảng</t>
+  </si>
+  <si>
+    <t>Đến bước 3 của quy trình</t>
+  </si>
+  <si>
+    <t>Test với default docker toolbox nhưng lỗi</t>
+  </si>
+  <si>
+    <t>Cài lại docker toolbox và test mạng</t>
+  </si>
+  <si>
+    <t>Đã test ok</t>
+  </si>
+  <si>
+    <t>Tạo bảng mysql chưa xong</t>
   </si>
 </sst>
 </file>
@@ -229,7 +253,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -388,11 +412,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -415,134 +457,183 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -550,44 +641,44 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -607,47 +698,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -931,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17:M18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,14 +1002,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -957,458 +1017,458 @@
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43" t="s">
+      <c r="G5" s="11"/>
+      <c r="H5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="43"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="49" t="s">
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="O5" s="50"/>
-      <c r="P5" s="43" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43" t="s">
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="24">
         <v>43690</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24">
         <v>43694</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="42">
+      <c r="E6" s="24"/>
+      <c r="F6" s="12">
         <v>5</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="48" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+      <c r="A7" s="42">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="44">
         <v>43690</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14">
+      <c r="C7" s="45"/>
+      <c r="D7" s="44">
         <v>43690</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="18">
+      <c r="E7" s="45"/>
+      <c r="F7" s="48">
         <v>1</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="44" t="s">
+      <c r="G7" s="49"/>
+      <c r="H7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="31"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="20"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="33"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="34"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="34"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="21"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="23"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>3</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="24">
         <v>43690</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22">
+      <c r="C9" s="24"/>
+      <c r="D9" s="24">
         <v>43692</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="42">
+      <c r="E9" s="24"/>
+      <c r="F9" s="12">
         <v>2</v>
       </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="47" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="36"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="35"/>
-      <c r="V9" s="36"/>
-      <c r="W9" s="37"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="32"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="39"/>
+      <c r="W9" s="32"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>4</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10" s="35">
         <v>43695</v>
       </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35">
         <v>43695</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="28">
+      <c r="E10" s="35"/>
+      <c r="F10" s="37">
         <v>4</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="44" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="38"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="40"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="34"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>5</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12">
         <v>0.75</v>
       </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="45" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-      <c r="L11" s="45"/>
-      <c r="M11" s="45"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="36"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="39"/>
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="32"/>
+      <c r="U11" s="31"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="32"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="41">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="36">
         <v>45</v>
       </c>
-      <c r="G12" s="41"/>
-      <c r="H12" s="44" t="s">
+      <c r="G12" s="36"/>
+      <c r="H12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="30"/>
-      <c r="W12" s="31"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="34"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="23"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="23"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="23"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>7</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="42">
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="12">
         <v>30</v>
       </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="45" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
-      <c r="L14" s="45"/>
-      <c r="M14" s="45"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="36"/>
-      <c r="R14" s="36"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="39"/>
+      <c r="R14" s="39"/>
+      <c r="S14" s="39"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="31"/>
+      <c r="V14" s="39"/>
+      <c r="W14" s="32"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="28">
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="37">
         <v>30</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="46" t="s">
+      <c r="G15" s="37"/>
+      <c r="H15" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="39"/>
-      <c r="W15" s="40"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="34"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="42">
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="12">
         <v>30</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="45" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="39"/>
+      <c r="S16" s="39"/>
+      <c r="T16" s="32"/>
+      <c r="U16" s="31"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="32"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="42">
         <v>10</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="41">
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36">
         <v>20</v>
       </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="44" t="s">
+      <c r="G17" s="36"/>
+      <c r="H17" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="29"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="29"/>
-      <c r="Q17" s="30"/>
-      <c r="R17" s="30"/>
-      <c r="S17" s="30"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="30"/>
-      <c r="W17" s="31"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="34"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -1421,34 +1481,43 @@
     </row>
   </sheetData>
   <mergeCells count="81">
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="P5:T5"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="P6:T6"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H7:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="H10:M10"/>
-    <mergeCell ref="P7:T8"/>
-    <mergeCell ref="U7:W8"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="H17:M18"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="H16:M16"/>
-    <mergeCell ref="H15:M15"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="U12:W13"/>
+    <mergeCell ref="U17:W18"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P16:T16"/>
+    <mergeCell ref="P12:T13"/>
+    <mergeCell ref="P17:T18"/>
+    <mergeCell ref="P9:T9"/>
+    <mergeCell ref="P10:T10"/>
+    <mergeCell ref="P11:T11"/>
+    <mergeCell ref="P14:T14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N7:O8"/>
+    <mergeCell ref="N12:O13"/>
     <mergeCell ref="N17:O18"/>
     <mergeCell ref="D12:E13"/>
     <mergeCell ref="N6:O6"/>
@@ -1465,43 +1534,34 @@
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G18"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N7:O8"/>
-    <mergeCell ref="N12:O13"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P16:T16"/>
-    <mergeCell ref="P12:T13"/>
-    <mergeCell ref="P17:T18"/>
-    <mergeCell ref="P9:T9"/>
-    <mergeCell ref="P10:T10"/>
-    <mergeCell ref="P11:T11"/>
-    <mergeCell ref="P14:T14"/>
-    <mergeCell ref="U12:W13"/>
-    <mergeCell ref="U17:W18"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C18"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="H17:M18"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="H12:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="H16:M16"/>
+    <mergeCell ref="H15:M15"/>
+    <mergeCell ref="H7:M8"/>
+    <mergeCell ref="H9:M9"/>
+    <mergeCell ref="H10:M10"/>
+    <mergeCell ref="P7:T8"/>
+    <mergeCell ref="U7:W8"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="P5:T5"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="P6:T6"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="N5:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1510,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1540,391 +1600,564 @@
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43" t="s">
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="49" t="s">
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="50"/>
+      <c r="W4" s="15"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="63">
+      <c r="B5" s="52">
         <v>43767</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="55">
+      <c r="C5" s="53"/>
+      <c r="D5" s="80">
         <v>2</v>
       </c>
-      <c r="E5" s="55"/>
-      <c r="F5" s="61" t="s">
+      <c r="E5" s="80"/>
+      <c r="F5" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="67" t="s">
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="55" t="s">
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="52"/>
+      <c r="R5" s="80"/>
+      <c r="S5" s="80"/>
+      <c r="T5" s="80"/>
+      <c r="U5" s="80"/>
+      <c r="V5" s="81"/>
+      <c r="W5" s="82"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>2</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="55">
+      <c r="B6" s="77"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="80">
         <v>1.5</v>
       </c>
-      <c r="E6" s="55"/>
-      <c r="F6" s="61" t="s">
+      <c r="E6" s="80"/>
+      <c r="F6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="67" t="s">
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="52"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="75"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="82"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="59">
+      <c r="B7" s="69">
         <v>43769</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60">
+      <c r="C7" s="69"/>
+      <c r="D7" s="68">
         <v>0.5</v>
       </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="68"/>
+      <c r="F7" s="85" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="54" t="s">
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="60" t="s">
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="71"/>
+      <c r="P7" s="71"/>
+      <c r="Q7" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="58"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+      <c r="U7" s="68"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="84"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="60">
+      <c r="A8" s="68">
         <v>4</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="56">
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="72">
         <v>3.5</v>
       </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="69" t="s">
+      <c r="E8" s="72"/>
+      <c r="F8" s="86" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="53" t="s">
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="69" t="s">
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="71"/>
+      <c r="P8" s="71"/>
+      <c r="Q8" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="R8" s="69"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="58"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="86"/>
+      <c r="T8" s="86"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="83"/>
+      <c r="W8" s="84"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="69"/>
-      <c r="R9" s="69"/>
-      <c r="S9" s="69"/>
-      <c r="T9" s="69"/>
-      <c r="U9" s="69"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="58"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="86"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="86"/>
+      <c r="T9" s="86"/>
+      <c r="U9" s="86"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="84"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="74">
+      <c r="A10" s="56">
         <v>5</v>
       </c>
-      <c r="B10" s="70">
+      <c r="B10" s="87">
         <v>43771</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="74">
+      <c r="C10" s="87"/>
+      <c r="D10" s="56">
         <v>3</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="77" t="s">
+      <c r="E10" s="56"/>
+      <c r="F10" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="80" t="s">
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M10" s="80"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="80"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="71" t="s">
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="R10" s="71"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="71"/>
-      <c r="U10" s="71"/>
-      <c r="V10" s="51"/>
-      <c r="W10" s="52"/>
+      <c r="R10" s="88"/>
+      <c r="S10" s="88"/>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="82"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="78"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="81"/>
-      <c r="M11" s="81"/>
-      <c r="N11" s="81"/>
-      <c r="O11" s="81"/>
-      <c r="P11" s="81"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="51"/>
-      <c r="W11" s="52"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="63"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="81"/>
+      <c r="W11" s="82"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="82"/>
-      <c r="M12" s="82"/>
-      <c r="N12" s="82"/>
-      <c r="O12" s="82"/>
-      <c r="P12" s="82"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="51"/>
-      <c r="W12" s="52"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="82"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="84">
+      <c r="A13" s="65">
         <v>6</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="69">
         <v>43772</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="56">
+      <c r="C13" s="69"/>
+      <c r="D13" s="72">
         <v>2</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="54" t="s">
+      <c r="E13" s="72"/>
+      <c r="F13" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54" t="s">
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="53" t="s">
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
+      <c r="A14" s="66"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="86"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="56">
+      <c r="A15" s="67"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="72">
         <v>1</v>
       </c>
-      <c r="E15" s="56"/>
-      <c r="F15" s="62" t="s">
+      <c r="E15" s="72"/>
+      <c r="F15" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62" t="s">
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="56">
+        <v>7</v>
+      </c>
+      <c r="B16" s="52">
+        <v>43838</v>
+      </c>
+      <c r="C16" s="53"/>
+      <c r="D16" s="10">
+        <v>3</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="91">
+        <v>8</v>
+      </c>
+      <c r="B18" s="52">
+        <v>43840</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="94">
+        <v>3</v>
+      </c>
+      <c r="E18" s="95"/>
+      <c r="F18" s="95" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="95"/>
+      <c r="Q18" s="92"/>
+      <c r="R18" s="92"/>
+      <c r="S18" s="92"/>
+      <c r="T18" s="92"/>
+      <c r="U18" s="92"/>
+      <c r="V18" s="92"/>
+      <c r="W18" s="93"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="91"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="94">
+        <v>1</v>
+      </c>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+      <c r="J19" s="95"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="92"/>
+      <c r="U19" s="92"/>
+      <c r="V19" s="92"/>
+      <c r="W19" s="93"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A13:A15"/>
+  <mergeCells count="57">
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="F7:K7"/>
+    <mergeCell ref="F8:K9"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="Q7:U7"/>
+    <mergeCell ref="Q8:U9"/>
+    <mergeCell ref="V10:W12"/>
+    <mergeCell ref="L8:P9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="B7:C9"/>
+    <mergeCell ref="B10:C12"/>
+    <mergeCell ref="Q10:U12"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="Q6:U6"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="L5:P5"/>
+    <mergeCell ref="Q5:U5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:K6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="L4:P4"/>
+    <mergeCell ref="F4:K4"/>
     <mergeCell ref="V13:W15"/>
     <mergeCell ref="Q15:U15"/>
     <mergeCell ref="B13:C15"/>
@@ -1935,42 +2168,13 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="L15:P15"/>
-    <mergeCell ref="B10:C12"/>
-    <mergeCell ref="Q10:U12"/>
-    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B16:C17"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="D10:E12"/>
     <mergeCell ref="F10:K12"/>
     <mergeCell ref="L10:P12"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="L4:P4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="B7:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="F7:K7"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="Q6:U6"/>
-    <mergeCell ref="B5:C6"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="L5:P5"/>
-    <mergeCell ref="Q5:U5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:K6"/>
-    <mergeCell ref="F8:K9"/>
-    <mergeCell ref="L7:P7"/>
-    <mergeCell ref="Q7:U7"/>
-    <mergeCell ref="Q8:U9"/>
-    <mergeCell ref="V10:W12"/>
-    <mergeCell ref="L8:P9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V8:W9"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A10:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
